--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111347.5499905286</v>
+        <v>109459.9684741272</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335979.6699295599</v>
+        <v>202627.8309024203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>202.3590963536309</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>281.3418326508652</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.1492960314036</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>54.42397186352292</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.710870120634</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>200.4126510055117</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60.53165876090239</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>270.004964615481</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>158.9699615100495</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>31.80118679221686</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>42.93165166918631</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>57.59710472315191</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>222.2179949548709</v>
       </c>
       <c r="X13" t="n">
-        <v>214.7563251735661</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>96.84207451769328</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>80.70734689294461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>100.6566375688338</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>94.16481274941232</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>29.18937547121087</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>2.93899791649622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>127.5160634026687</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.1113436488111</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>119.0929986500075</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>215.9214489620706</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>89.14218374545621</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.749002612115255</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2492.745963388292</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2492.745963388292</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.977308118178</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X2" t="n">
-        <v>1766.511549857098</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1376.372217881286</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4434,22 +4434,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.9956044222747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.452423968253</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>966.622729332398</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2391.363323619549</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2391.363323619549</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>2017.897565358469</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.758233382657</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>97.30828653671426</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761945</v>
+        <v>97.30828653671426</v>
       </c>
       <c r="D10" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>97.30828653671426</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>97.30828653671426</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5121,25 +5121,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>794.1790493843997</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.990689574502</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1061.198110430972</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5261,19 +5261,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.551052309181</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.071707946799</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344996</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X16" t="n">
-        <v>838.8478891153636</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y16" t="n">
-        <v>838.8478891153636</v>
+        <v>195.0373687508851</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,10 +5516,10 @@
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>738.0704661731477</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1506.438612565609</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>795.4496523104681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>626.5134693825612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>626.5134693825612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>478.6003758001681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>478.6003758001681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>310.4250541199887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352016</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>795.4496523104681</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5747,49 +5747,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>395.9961833785279</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>1009.893253135417</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M21" t="n">
-        <v>1778.261399527878</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.782055165496</v>
+        <v>1210.105893490365</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>1879.569654793025</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2399.870276528772</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.530415756804</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.737836613274</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,34 +5984,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
         <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>784.1783943330314</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>1552.546540725493</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N24" t="n">
-        <v>1897.067196363111</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O24" t="n">
-        <v>2145.820610447073</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1211.935115357083</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>957.2506271511957</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W25" t="n">
-        <v>667.8334571142351</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6309,22 +6309,22 @@
         <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>836.4717212750119</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M27" t="n">
-        <v>1604.839867667473</v>
+        <v>990.9427979105848</v>
       </c>
       <c r="N27" t="n">
-        <v>1949.360523305091</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1267.545208887397</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U28" t="n">
-        <v>1080.893786774393</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V28" t="n">
-        <v>826.2092985685066</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W28" t="n">
-        <v>826.2092985685066</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="X28" t="n">
-        <v>598.2197476704893</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y28" t="n">
-        <v>598.2197476704893</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1423.270537802985</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.502972866612</v>
+        <v>488.0294937553492</v>
       </c>
       <c r="C31" t="n">
-        <v>615.3276552200759</v>
+        <v>374.854176108813</v>
       </c>
       <c r="D31" t="n">
-        <v>520.971881089111</v>
+        <v>280.4984019778479</v>
       </c>
       <c r="E31" t="n">
-        <v>428.8196527880886</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
-        <v>337.690570571549</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1929.308888700402</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1785.149743897325</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1617.125193968201</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1383.75742046313</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1184.833797538614</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.650971894287</v>
+        <v>951.1774927830244</v>
       </c>
       <c r="X31" t="n">
-        <v>1019.42228627764</v>
+        <v>778.9488071663777</v>
       </c>
       <c r="Y31" t="n">
-        <v>854.390572415481</v>
+        <v>613.9170933042182</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,34 +6683,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2170.791457744991</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2353.434935358342</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254955</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7154,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>661.3152587829632</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7394,49 +7394,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
@@ -7558,31 +7558,31 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>122.8749291486853</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>352.8380350170345</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8781,16 +8781,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>376.4904526174739</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9972,10 +9972,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>163.7584467404191</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>64.30500338172007</v>
       </c>
       <c r="X13" t="n">
-        <v>10.95333021547107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>82.98990566424402</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>145.0023084960926</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>48.25719079870228</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871787</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>222.7706574725409</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>52.31591677926855</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,7 +24418,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>2.126008749766243</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>78.82781133359565</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>70.31590343650677</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>22.14812808936433</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>48.01209316312053</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524995</v>
+      </c>
+      <c r="C2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="C2" t="n">
-        <v>287364.6194524996</v>
-      </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="E2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="F2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="G2" t="n">
         <v>273720.3418163963</v>
@@ -26332,28 +26332,28 @@
         <v>273720.3418163963</v>
       </c>
       <c r="I2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="J2" t="n">
-        <v>273720.3418163961</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416893</v>
+        <v>284775.4961416892</v>
       </c>
       <c r="L2" t="n">
+        <v>287364.6194524989</v>
+      </c>
+      <c r="M2" t="n">
+        <v>287364.6194524988</v>
+      </c>
+      <c r="N2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="O2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>287364.6194524989</v>
-      </c>
-      <c r="N2" t="n">
-        <v>287364.6194524989</v>
-      </c>
-      <c r="O2" t="n">
-        <v>287364.6194524989</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524988</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759301</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.4162047724</v>
+        <v>18952.41620477238</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524521.4770060737</v>
+        <v>-524521.4770060735</v>
       </c>
       <c r="C6" t="n">
-        <v>65446.40220847103</v>
+        <v>65446.4022084708</v>
       </c>
       <c r="D6" t="n">
-        <v>65446.40220847077</v>
+        <v>65446.40220847094</v>
       </c>
       <c r="E6" t="n">
-        <v>-344214.8142997924</v>
+        <v>-344312.2734257644</v>
       </c>
       <c r="F6" t="n">
-        <v>180945.2221771038</v>
+        <v>180847.7630511315</v>
       </c>
       <c r="G6" t="n">
-        <v>180945.2221771039</v>
+        <v>180847.7630511316</v>
       </c>
       <c r="H6" t="n">
-        <v>180945.2221771038</v>
+        <v>180847.7630511316</v>
       </c>
       <c r="I6" t="n">
-        <v>180945.2221771037</v>
+        <v>180847.7630511315</v>
       </c>
       <c r="J6" t="n">
-        <v>4522.002984510589</v>
+        <v>4424.543858538542</v>
       </c>
       <c r="K6" t="n">
-        <v>125032.2661038485</v>
+        <v>125013.7723659141</v>
       </c>
       <c r="L6" t="n">
-        <v>156100.0258997106</v>
+        <v>156100.0258997103</v>
       </c>
       <c r="M6" t="n">
-        <v>31641.91746673989</v>
+        <v>31641.91746673992</v>
       </c>
       <c r="N6" t="n">
-        <v>166442.9327005772</v>
+        <v>166442.9327005777</v>
       </c>
       <c r="O6" t="n">
-        <v>166442.9327005772</v>
+        <v>166442.9327005775</v>
       </c>
       <c r="P6" t="n">
-        <v>122280.3273977314</v>
+        <v>122280.3273977316</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26738,31 +26738,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>48.86507115465844</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>104.8961060051884</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.68268415053367</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>157.721567086496</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.02297154284656</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>185.8252876505418</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>106.7781434981485</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>16.27690962649677</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>195.7130801106334</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>295.951071677918</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>105.683821349026</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>87.82394329977933</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,10 +31139,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576413</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31841,34 +31841,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52118431133897</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>244.1248518584484</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,16 +32084,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>134.1657216706757</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.5684716790593</v>
+        <v>369.6935619162748</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,34 +32552,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>175.1732645054593</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>145.129957814886</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,16 +32792,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9905423702617</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>351.8516207003251</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33029,31 +33029,31 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>131.5791752514253</v>
       </c>
       <c r="O27" t="n">
-        <v>245.2687781552866</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>354.7720819624384</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,28 +33500,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>192.034342835522</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>435.7437450400229</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33892,7 +33892,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>13.93913325719836</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34135,7 +34135,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>47.93166030412436</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>345.0922141393206</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>592.1255141186687</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,22 +35732,22 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>457.7367514986573</v>
+        <v>234.3564186954556</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>622.5691339392795</v>
+        <v>717.694224176495</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>301.7970625436789</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>215.2254714647136</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>567.2765078938467</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>675.4226505283067</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36458,7 +36458,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>479.5798375116455</v>
       </c>
       <c r="O27" t="n">
-        <v>496.5348529875717</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>606.0381567947235</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412253</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>262.1298564853495</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>759.3147748680045</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>337.51016308518</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>371.502690132106</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>25.9170077660601</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
